--- a/es/es-oral.xlsx
+++ b/es/es-oral.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940"/>
   </bookViews>
   <sheets>
     <sheet name="ask" sheetId="1" r:id="rId1"/>
@@ -29,43 +29,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
+    <t>Spanish</t>
+  </si>
+  <si>
     <t>English</t>
   </si>
   <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>cómo</t>
   </si>
   <si>
     <t>how\what</t>
   </si>
   <si>
-    <t>quand</t>
+    <t>cuando</t>
   </si>
   <si>
     <t>when</t>
   </si>
   <si>
-    <t>quel/quelle</t>
+    <t>cual</t>
   </si>
   <si>
     <t>what\how</t>
   </si>
   <si>
-    <t>qui</t>
+    <t>quién</t>
   </si>
   <si>
     <t>who</t>
   </si>
   <si>
-    <t>où</t>
+    <t>dónde</t>
   </si>
   <si>
     <t>where</t>
   </si>
   <si>
-    <t>pourquoi</t>
+    <t>por qué</t>
   </si>
   <si>
     <t>why</t>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>

--- a/es/es-oral.xlsx
+++ b/es/es-oral.xlsx
@@ -32,43 +32,43 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>English</t>
+    <t>French</t>
   </si>
   <si>
     <t>cómo</t>
   </si>
   <si>
-    <t>how\what</t>
+    <t>comment</t>
   </si>
   <si>
     <t>cuando</t>
   </si>
   <si>
-    <t>when</t>
+    <t>quand</t>
   </si>
   <si>
     <t>cual</t>
   </si>
   <si>
-    <t>what\how</t>
+    <t>quel/quelle</t>
   </si>
   <si>
     <t>quién</t>
   </si>
   <si>
-    <t>who</t>
+    <t>qui</t>
   </si>
   <si>
     <t>dónde</t>
   </si>
   <si>
-    <t>where</t>
+    <t>où</t>
   </si>
   <si>
     <t>por qué</t>
   </si>
   <si>
-    <t>why</t>
+    <t>pourquoi</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="3"/>
